--- a/Checklist Before Go-Live/Prod Build and CutOver Plan.xlsx
+++ b/Checklist Before Go-Live/Prod Build and CutOver Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mudit Sharma\Documents\Partner\TTV\Artificats showing Plan\10. Checklist Before Go-Live\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darsh\OneDrive\Documents\GitHub\SaviyntArtifacts\Checklist Before Go-Live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158AE082-4EC6-48DC-B43B-5C2DDC07B46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1AE5E5-5D98-4122-B66D-AB1C2EB7CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prod Tasks SSM" sheetId="1" r:id="rId1"/>
@@ -693,22 +693,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:B71"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="72.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -737,7 +737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -809,7 +809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -828,7 +828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -847,7 +847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -866,7 +866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -885,7 +885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -904,7 +904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -923,7 +923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -942,7 +942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -961,7 +961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -995,7 +995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1307,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
